--- a/assignment1/data1.xlsx
+++ b/assignment1/data1.xlsx
@@ -16,20 +16,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,9 +39,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -56,7 +49,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,17 +70,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,16 +85,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,22 +138,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,10 +160,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,31 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +192,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +240,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +288,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,31 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,43 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,49 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,30 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -456,17 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,12 +455,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,145 +503,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,31 +652,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1003,8 +996,8 @@
   <sheetPr/>
   <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="K259" sqref="K259"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
